--- a/Danh sach nhan hieu.xlsx
+++ b/Danh sach nhan hieu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QLWebBHTP-main\QLWebBHTP-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\QLWebBHTP-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806F281B-1E44-4600-82E2-C0B74EE8C55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCD4CBE-11F8-498A-A099-B4E0C73DD0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>brandName</t>
   </si>
@@ -39,58 +39,61 @@
     <t>logoUrl</t>
   </si>
   <si>
-    <t>Dove</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>https://cdn.tgdd.vn/Brand/11/clear-040420211707.jpg</t>
-  </si>
-  <si>
-    <t>Sunsilk</t>
-  </si>
-  <si>
-    <t>https://cdn.tgdd.vn/Brand/11/sunsilk-2309202011230.png</t>
-  </si>
-  <si>
-    <t>Rejoice</t>
-  </si>
-  <si>
-    <t>https://cdn.tgdd.vn/Brand/11/rejoice-26082021155510.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.tgdd.vn/Brand/11/dove-05042021132326.jpg</t>
-  </si>
-  <si>
-    <t>https://cdnv2.tgdd.vn/bhx-static/bhx/Brand/11/22724/lifebuoy-14032021221888.jpg</t>
-  </si>
-  <si>
-    <t>Lifebuoy</t>
-  </si>
-  <si>
-    <t>https://cdn.tgdd.vn/Brand/11/head-shoulders-2608202116429.jpg</t>
-  </si>
-  <si>
-    <t>Head &amp; shoulders</t>
-  </si>
-  <si>
-    <t>https://cdn.tgdd.vn/Brand/11/x-men-0404202119811.jpg</t>
-  </si>
-  <si>
-    <t>X-men</t>
-  </si>
-  <si>
-    <t>https://cdn.tgdd.vn/Brand/11/enchanteur-0504202114238.jpg</t>
-  </si>
-  <si>
-    <t>Enchanteur</t>
-  </si>
-  <si>
-    <t>https://cdn.tgdd.vn/Brand/11/romano-04042021185335.jpg</t>
-  </si>
-  <si>
-    <t>Romano</t>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/bachhoaxanh/shopinshop/8/2/pepsico-24032024192227.png</t>
+  </si>
+  <si>
+    <t>Trà ô Long Tea+</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/bachhoaxanh/shopinshop/8/5/pepsico-09042021143726.png</t>
+  </si>
+  <si>
+    <t>Mirinda</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/bachhoaxanh/shopinshop/8/12/pepsico-160920228953.png</t>
+  </si>
+  <si>
+    <t>Sting</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/bachhoaxanh/shopinshop/8/3/pepsico-24032024191926.png</t>
+  </si>
+  <si>
+    <t>7 up</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/bachhoaxanh/shopinshop/8/13/pepsico-160920228937.png</t>
+  </si>
+  <si>
+    <t>Revive</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/bachhoaxanh/shopinshop/8/14/pepsico-24032024192535.png</t>
+  </si>
+  <si>
+    <t>Rockstar</t>
+  </si>
+  <si>
+    <t>Aquafina</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/bachhoaxanh/shopinshop/8/8/pepsico-29082022105643.png</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/bachhoaxanh/shopinshop/8/9/pepsico-09042021143842.png</t>
+  </si>
+  <si>
+    <t>Twister</t>
+  </si>
+  <si>
+    <t>Lipton</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/bachhoaxanh/shopinshop/8/10/pepsico-31082022172335.png</t>
   </si>
 </sst>
 </file>
@@ -194,8 +197,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent4" xfId="1" builtinId="41"/>
@@ -478,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -504,77 +507,85 @@
     </row>
     <row r="2" spans="1:3" ht="16.8" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
         <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8" t="s">
         <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -584,6 +595,10 @@
     <hyperlink ref="C8" r:id="rId3" xr:uid="{5D75C50C-D6F8-481D-B8AF-20846D0B974A}"/>
     <hyperlink ref="C9" r:id="rId4" xr:uid="{42B5F654-B16D-4391-8BC8-290FCF9F4DFC}"/>
     <hyperlink ref="C10" r:id="rId5" xr:uid="{9ADAEA1A-1C56-4F5C-BE08-2D57DE1C7A33}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{F0A3C204-5E20-49F0-8FD3-B26E6806D8EA}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{4F6EDF43-29DD-4BDF-84AF-09F68080083C}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{DB9C1D3E-9714-4611-AEA3-90B9EA8FF103}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{3BC9F9B5-9609-4B34-B2DF-5A7BF5558C73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
